--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
     <t>2016-01-27 07:42:11</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:44:36</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:45:18</t>
+  </si>
+  <si>
     <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
   </si>
   <si>
     <t>2016-01-27 07:42:30</t>
+  </si>
+  <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:44:47</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:45:38</t>
   </si>
 </sst>
 </file>
@@ -205,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,10 +270,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId2"/>
     <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +315,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -317,22 +350,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -343,22 +376,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -371,6 +430,10 @@
     <hyperlink ref="C3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
     <hyperlink ref="F3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -381,7 +444,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,31 +463,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -435,22 +498,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -461,22 +524,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,6 +578,10 @@
     <hyperlink ref="C3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
     <hyperlink ref="F3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -91,10 +91,10 @@
     <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:44:36</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:45:18</t>
+    <t>2016-01-27 07:46:20</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:47:05</t>
   </si>
   <si>
     <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
@@ -118,10 +118,10 @@
     <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:44:47</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:45:38</t>
+    <t>2016-01-27 07:46:34</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:47:25</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-27 07:55:40</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:56:31</t>
+  </si>
+  <si>
     <t>bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:55:52</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:56:54</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -76,10 +76,10 @@
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:55:40</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:56:31</t>
+    <t>2016-01-27 07:57:42</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:58:25</t>
   </si>
   <si>
     <t>bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.de-de.xlf</t>
@@ -94,10 +94,10 @@
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:55:52</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:56:54</t>
+    <t>2016-01-27 07:57:55</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:58:47</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:25:45</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:26:44</t>
+    <t>2016-01-27 08:28:02</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:28:59</t>
   </si>
   <si>
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:26:03</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:27:07</t>
+    <t>2016-01-27 08:28:17</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:29:21</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -82,10 +82,10 @@
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:28:02</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:28:59</t>
+    <t>2016-01-27 08:29:56</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:30:54</t>
   </si>
   <si>
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
@@ -100,10 +100,10 @@
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:28:17</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:29:21</t>
+    <t>2016-01-27 08:30:11</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:31:17</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -40,6 +40,12 @@
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
   </si>
   <si>
+    <t>52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md</t>
+  </si>
+  <si>
+    <t>5db9de63-b467-4b11-8212-54a0cf1a683f.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -88,6 +94,18 @@
     <t>2016-01-27 08:30:54</t>
   </si>
   <si>
+    <t>52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:32:11</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:33:18</t>
+  </si>
+  <si>
+    <t>5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
   </si>
   <si>
@@ -104,6 +122,18 @@
   </si>
   <si>
     <t>2016-01-27 08:31:17</t>
+  </si>
+  <si>
+    <t>52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:32:30</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:33:43</t>
+  </si>
+  <si>
+    <t>5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -208,7 +238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -274,12 +304,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId2"/>
     <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId3"/>
     <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId4"/>
     <hyperlink ref="A5" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -290,7 +344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,31 +363,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -344,22 +398,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -370,22 +424,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -396,22 +450,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -422,22 +476,74 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -458,6 +564,14 @@
     <hyperlink ref="C5" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId16"/>
     <hyperlink ref="F5" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="E7" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId24"/>
+    <hyperlink ref="F7" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -468,7 +582,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,31 +601,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +636,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +662,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -574,22 +688,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -600,22 +714,74 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -636,6 +802,14 @@
     <hyperlink ref="C5" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId16"/>
     <hyperlink ref="F5" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId22"/>
+    <hyperlink ref="C7" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="E7" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId24"/>
+    <hyperlink ref="F7" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.de-de.xlf" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -85,6 +88,15 @@
     <t>2016-01-29 02:14:11</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:16:46</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:17:31</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
   </si>
   <si>
     <t>2016-01-29 02:14:31</t>
+  </si>
+  <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:16:58</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:17:54</t>
   </si>
 </sst>
 </file>
@@ -205,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,10 +270,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId2"/>
     <hyperlink ref="A3" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +315,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -317,22 +350,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -343,22 +376,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -371,6 +430,10 @@
     <hyperlink ref="C3" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId8"/>
     <hyperlink ref="F3" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -381,7 +444,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,31 +463,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -435,22 +498,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -461,22 +524,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,6 +578,10 @@
     <hyperlink ref="C3" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId8"/>
     <hyperlink ref="F3" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -91,10 +91,10 @@
     <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:16:46</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:17:31</t>
+    <t>2016-01-29 02:18:29</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:19:19</t>
   </si>
   <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
@@ -118,10 +118,10 @@
     <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:16:58</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:17:54</t>
+    <t>2016-01-29 02:18:42</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:19:39</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-29 02:27:54</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:28:40</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-29 02:25:54</t>
   </si>
   <si>
     <t>2016-01-29 02:26:50</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-29 02:28:06</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:29:00</t>
+  </si>
+  <si>
+    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-29 02:26:06</t>
   </si>
   <si>
     <t>2016-01-29 02:27:09</t>
-  </si>
-  <si>
-    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:27:54</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:28:40</t>
+    <t>2016-01-29 02:29:40</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:30:26</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:28:06</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:29:00</t>
+    <t>2016-01-29 02:29:51</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:30:45</t>
   </si>
   <si>
     <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf</t>
